--- a/Code/Results/Cases/Case_9_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.003127379391158</v>
+        <v>1.00274260572625</v>
       </c>
       <c r="D2">
-        <v>1.029357315520692</v>
+        <v>1.028394297668042</v>
       </c>
       <c r="E2">
-        <v>1.00917630852673</v>
+        <v>1.008849015649259</v>
       </c>
       <c r="F2">
-        <v>1.03536498705649</v>
+        <v>1.034733677726991</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052792103617183</v>
+        <v>1.052295120737819</v>
       </c>
       <c r="J2">
-        <v>1.025214951747627</v>
+        <v>1.024841594230409</v>
       </c>
       <c r="K2">
-        <v>1.040422263304805</v>
+        <v>1.039471735373555</v>
       </c>
       <c r="L2">
-        <v>1.020509266126892</v>
+        <v>1.02018643099502</v>
       </c>
       <c r="M2">
-        <v>1.046352673491612</v>
+        <v>1.04572943036345</v>
       </c>
       <c r="N2">
-        <v>1.012338565015425</v>
+        <v>1.013810792987788</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045257406924527</v>
+        <v>1.044764154837353</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039652321204885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038988979666936</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022578804189476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006691811028368</v>
+        <v>1.006176733973964</v>
       </c>
       <c r="D3">
-        <v>1.031786630940541</v>
+        <v>1.030652476113989</v>
       </c>
       <c r="E3">
-        <v>1.011955960396694</v>
+        <v>1.011514686934518</v>
       </c>
       <c r="F3">
-        <v>1.037868700188569</v>
+        <v>1.037116462763047</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053574418916918</v>
+        <v>1.052988112827847</v>
       </c>
       <c r="J3">
-        <v>1.027001698091188</v>
+        <v>1.026500419649108</v>
       </c>
       <c r="K3">
-        <v>1.042028329932482</v>
+        <v>1.040907617991645</v>
       </c>
       <c r="L3">
-        <v>1.02243811432769</v>
+        <v>1.022002325031793</v>
       </c>
       <c r="M3">
-        <v>1.04803892976998</v>
+        <v>1.047295475568603</v>
       </c>
       <c r="N3">
-        <v>1.012938471951482</v>
+        <v>1.014253096060288</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046591955763782</v>
+        <v>1.046003566293701</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040785285644845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04000133321637</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02285993764612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00895961016455</v>
+        <v>1.008362428909171</v>
       </c>
       <c r="D4">
-        <v>1.033333995811333</v>
+        <v>1.032091490777114</v>
       </c>
       <c r="E4">
-        <v>1.013730339391494</v>
+        <v>1.013217151630133</v>
       </c>
       <c r="F4">
-        <v>1.039466040962117</v>
+        <v>1.038637334755939</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054059520354116</v>
+        <v>1.053416554537979</v>
       </c>
       <c r="J4">
-        <v>1.028136872153013</v>
+        <v>1.027554615147006</v>
       </c>
       <c r="K4">
-        <v>1.043046089784348</v>
+        <v>1.041817433740514</v>
       </c>
       <c r="L4">
-        <v>1.023665828262735</v>
+        <v>1.023158632151405</v>
       </c>
       <c r="M4">
-        <v>1.04911038270239</v>
+        <v>1.048290775332517</v>
       </c>
       <c r="N4">
-        <v>1.013319645003995</v>
+        <v>1.01453425049141</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047439931345525</v>
+        <v>1.046791272947778</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04150582060814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040645624839804</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023035656831023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00990654408786</v>
+        <v>1.009275254155171</v>
       </c>
       <c r="D5">
-        <v>1.033982178943547</v>
+        <v>1.032694624572687</v>
       </c>
       <c r="E5">
-        <v>1.014472958593269</v>
+        <v>1.013929867978432</v>
       </c>
       <c r="F5">
-        <v>1.040134606304612</v>
+        <v>1.039274118233214</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054260232203758</v>
+        <v>1.053593682846675</v>
       </c>
       <c r="J5">
-        <v>1.028611667728796</v>
+        <v>1.02799568669773</v>
       </c>
       <c r="K5">
-        <v>1.043472299265588</v>
+        <v>1.042198718102261</v>
       </c>
       <c r="L5">
-        <v>1.02417948954044</v>
+        <v>1.023642570168457</v>
       </c>
       <c r="M5">
-        <v>1.049558542270203</v>
+        <v>1.048707253109012</v>
       </c>
       <c r="N5">
-        <v>1.013479423486833</v>
+        <v>1.014652158010642</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047794616137921</v>
+        <v>1.047120884265952</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041814338357797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040923087626498</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023109112948592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010068104741771</v>
+        <v>1.009430996968366</v>
       </c>
       <c r="D6">
-        <v>1.034094839639992</v>
+        <v>1.032799691202145</v>
       </c>
       <c r="E6">
-        <v>1.014600144955447</v>
+        <v>1.014051943328167</v>
       </c>
       <c r="F6">
-        <v>1.04024942223307</v>
+        <v>1.039383567173461</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054295794658015</v>
+        <v>1.053625268072729</v>
       </c>
       <c r="J6">
-        <v>1.028694115229992</v>
+        <v>1.028072378613871</v>
       </c>
       <c r="K6">
-        <v>1.043547685634588</v>
+        <v>1.042266529134096</v>
       </c>
       <c r="L6">
-        <v>1.02426825196987</v>
+        <v>1.023726251025167</v>
       </c>
       <c r="M6">
-        <v>1.049636361072833</v>
+        <v>1.048779720372506</v>
       </c>
       <c r="N6">
-        <v>1.013507586206537</v>
+        <v>1.014672973676574</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047856203884947</v>
+        <v>1.047178236723468</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041876365472008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040980626868079</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023122632983649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008980566769767</v>
+        <v>1.008389847855714</v>
       </c>
       <c r="D7">
-        <v>1.03335379235792</v>
+        <v>1.032115364377333</v>
       </c>
       <c r="E7">
-        <v>1.013747860090323</v>
+        <v>1.013240443843727</v>
       </c>
       <c r="F7">
-        <v>1.039482657788296</v>
+        <v>1.038657421994716</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05406796984833</v>
+        <v>1.053427151134898</v>
       </c>
       <c r="J7">
-        <v>1.028151297769859</v>
+        <v>1.027575335257415</v>
       </c>
       <c r="K7">
-        <v>1.043062793910096</v>
+        <v>1.041838164159759</v>
       </c>
       <c r="L7">
-        <v>1.023680197809801</v>
+        <v>1.023178703549551</v>
       </c>
       <c r="M7">
-        <v>1.049123967705198</v>
+        <v>1.048307789237384</v>
       </c>
       <c r="N7">
-        <v>1.013325633889503</v>
+        <v>1.014566543159196</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.0474506828621</v>
+        <v>1.046804738196416</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041537695917855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040682345185175</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023041497987318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004350345168415</v>
+        <v>1.003942869405503</v>
       </c>
       <c r="D8">
-        <v>1.030197017587895</v>
+        <v>1.029190317278774</v>
       </c>
       <c r="E8">
-        <v>1.010130185768866</v>
+        <v>1.00978349330795</v>
       </c>
       <c r="F8">
-        <v>1.036225248337245</v>
+        <v>1.035564913658009</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053067888594279</v>
+        <v>1.052548181026344</v>
       </c>
       <c r="J8">
-        <v>1.025833101407399</v>
+        <v>1.025437312381222</v>
       </c>
       <c r="K8">
-        <v>1.040982915291612</v>
+        <v>1.039988887482129</v>
       </c>
       <c r="L8">
-        <v>1.021174663640073</v>
+        <v>1.02083255190335</v>
       </c>
       <c r="M8">
-        <v>1.046935903341654</v>
+        <v>1.046283757564079</v>
       </c>
       <c r="N8">
-        <v>1.012547584022579</v>
+        <v>1.014049483709242</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045718991080846</v>
+        <v>1.045202864943378</v>
       </c>
       <c r="Q8">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040071614233903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039379780635065</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022683740671605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9958701921244336</v>
+        <v>0.9957810217533485</v>
       </c>
       <c r="D9">
-        <v>1.024422911752098</v>
+        <v>1.023828529532737</v>
       </c>
       <c r="E9">
-        <v>1.003550637874163</v>
+        <v>1.003481807230807</v>
       </c>
       <c r="F9">
-        <v>1.030293455934824</v>
+        <v>1.029925404521382</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051132301530806</v>
+        <v>1.050827165172042</v>
       </c>
       <c r="J9">
-        <v>1.021569632182455</v>
+        <v>1.021483647754025</v>
       </c>
       <c r="K9">
-        <v>1.037131792972974</v>
+        <v>1.036546483390409</v>
       </c>
       <c r="L9">
-        <v>1.016586369932184</v>
+        <v>1.016518646000788</v>
       </c>
       <c r="M9">
-        <v>1.042913445128968</v>
+        <v>1.042550928857334</v>
       </c>
       <c r="N9">
-        <v>1.011115056396382</v>
+        <v>1.013004269870097</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042535501011703</v>
+        <v>1.042248594439232</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037345450678913</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03694233074333</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021994967839204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9900320586149252</v>
+        <v>0.9901965384996231</v>
       </c>
       <c r="D10">
-        <v>1.02047927410212</v>
+        <v>1.020191104795776</v>
       </c>
       <c r="E10">
-        <v>0.9990613042386366</v>
+        <v>0.9992134948658347</v>
       </c>
       <c r="F10">
-        <v>1.026307983821278</v>
+        <v>1.026160315156584</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04975473249546</v>
+        <v>1.049608445651753</v>
       </c>
       <c r="J10">
-        <v>1.018646818675142</v>
+        <v>1.018804586275615</v>
       </c>
       <c r="K10">
-        <v>1.034488358334383</v>
+        <v>1.034205127446523</v>
       </c>
       <c r="L10">
-        <v>1.01344752783604</v>
+        <v>1.013596964440936</v>
       </c>
       <c r="M10">
-        <v>1.040217948269493</v>
+        <v>1.040072772839622</v>
       </c>
       <c r="N10">
-        <v>1.010138928807113</v>
+        <v>1.012411123143654</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040453514229861</v>
+        <v>1.040338624723719</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035493182119924</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035305331283513</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021520892666908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9877436012002284</v>
+        <v>0.9880374259469814</v>
       </c>
       <c r="D11">
-        <v>1.019066284586558</v>
+        <v>1.018914289039218</v>
       </c>
       <c r="E11">
-        <v>0.9973547583931821</v>
+        <v>0.9976176334925263</v>
       </c>
       <c r="F11">
-        <v>1.025307202887824</v>
+        <v>1.025261392505415</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049332288807414</v>
+        <v>1.049256799599315</v>
       </c>
       <c r="J11">
-        <v>1.017635301653831</v>
+        <v>1.017916471136163</v>
       </c>
       <c r="K11">
-        <v>1.033637378552715</v>
+        <v>1.0334881122921</v>
       </c>
       <c r="L11">
-        <v>1.01232673310662</v>
+        <v>1.012584618040583</v>
       </c>
       <c r="M11">
-        <v>1.03976713884445</v>
+        <v>1.039722138004215</v>
       </c>
       <c r="N11">
-        <v>1.009846053907138</v>
+        <v>1.012434515730429</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040531926958849</v>
+        <v>1.040496331839758</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034924345309576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034834428302696</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021407565356825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9869661284988862</v>
+        <v>0.9873033754352477</v>
       </c>
       <c r="D12">
-        <v>1.0186238706907</v>
+        <v>1.018516965861431</v>
       </c>
       <c r="E12">
-        <v>0.9967918381505391</v>
+        <v>0.9970904120021508</v>
       </c>
       <c r="F12">
-        <v>1.025180771555894</v>
+        <v>1.025169371074609</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049227778868026</v>
+        <v>1.049175788302651</v>
       </c>
       <c r="J12">
-        <v>1.017332535190545</v>
+        <v>1.017654971808336</v>
       </c>
       <c r="K12">
-        <v>1.03340275811641</v>
+        <v>1.033297805355205</v>
       </c>
       <c r="L12">
-        <v>1.011980760664038</v>
+        <v>1.012273568230028</v>
       </c>
       <c r="M12">
-        <v>1.039840941965452</v>
+        <v>1.039829746185116</v>
       </c>
       <c r="N12">
-        <v>1.009779324599372</v>
+        <v>1.012489607246962</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040915971520254</v>
+        <v>1.040907118778058</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034758461040537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03469987790538</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021388041504616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9873138842890793</v>
+        <v>0.9876207831853222</v>
       </c>
       <c r="D13">
-        <v>1.018917553336783</v>
+        <v>1.018781318111447</v>
       </c>
       <c r="E13">
-        <v>0.9970817885482414</v>
+        <v>0.9973517084892033</v>
       </c>
       <c r="F13">
-        <v>1.025742895808074</v>
+        <v>1.02571032318695</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049376669480417</v>
+        <v>1.049309569600126</v>
       </c>
       <c r="J13">
-        <v>1.017570394728856</v>
+        <v>1.017863878449593</v>
       </c>
       <c r="K13">
-        <v>1.033648232455435</v>
+        <v>1.033514474785039</v>
       </c>
       <c r="L13">
-        <v>1.012220888620838</v>
+        <v>1.012485616960231</v>
       </c>
       <c r="M13">
-        <v>1.040350544097047</v>
+        <v>1.04031855356747</v>
       </c>
       <c r="N13">
-        <v>1.009888900645583</v>
+        <v>1.01254209907178</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041595013045516</v>
+        <v>1.041569723785875</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034929526406575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03485033185597</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021445434343626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9880668814457908</v>
+        <v>0.9883203029443015</v>
       </c>
       <c r="D14">
-        <v>1.019456734886463</v>
+        <v>1.019267143262929</v>
       </c>
       <c r="E14">
-        <v>0.9976708289636633</v>
+        <v>0.9978928008623418</v>
       </c>
       <c r="F14">
-        <v>1.026447461457334</v>
+        <v>1.026375653889183</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049595285672782</v>
+        <v>1.049500578203031</v>
       </c>
       <c r="J14">
-        <v>1.017981035569</v>
+        <v>1.018223535917753</v>
       </c>
       <c r="K14">
-        <v>1.034037323077547</v>
+        <v>1.033851137044783</v>
       </c>
       <c r="L14">
-        <v>1.012653830840786</v>
+        <v>1.012871586773397</v>
       </c>
       <c r="M14">
-        <v>1.040903615822204</v>
+        <v>1.040833075245055</v>
       </c>
       <c r="N14">
-        <v>1.010045206445406</v>
+        <v>1.012578990191677</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042205205714079</v>
+        <v>1.042149449251643</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035206051058209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035089921487363</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021520646326626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9885008358283415</v>
+        <v>0.9887252512364972</v>
       </c>
       <c r="D15">
-        <v>1.019757259108044</v>
+        <v>1.019538230307386</v>
       </c>
       <c r="E15">
-        <v>0.9980056030517179</v>
+        <v>0.9982020293139977</v>
       </c>
       <c r="F15">
-        <v>1.02678458745225</v>
+        <v>1.026690998664983</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049708966918653</v>
+        <v>1.049599005266666</v>
       </c>
       <c r="J15">
-        <v>1.018205906092195</v>
+        <v>1.018420734465687</v>
       </c>
       <c r="K15">
-        <v>1.034246045553975</v>
+        <v>1.034030921417655</v>
       </c>
       <c r="L15">
-        <v>1.012893091655339</v>
+        <v>1.013085815898171</v>
       </c>
       <c r="M15">
-        <v>1.041149241877999</v>
+        <v>1.041057291796196</v>
       </c>
       <c r="N15">
-        <v>1.010124607997761</v>
+        <v>1.01259248826998</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042436819545906</v>
+        <v>1.042364142559615</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035359495835197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035223474068482</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021558734136056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9909115661179435</v>
+        <v>0.9909867352219434</v>
       </c>
       <c r="D16">
-        <v>1.021385306062191</v>
+        <v>1.021009623280462</v>
       </c>
       <c r="E16">
-        <v>0.9998493042042315</v>
+        <v>0.999916050654779</v>
       </c>
       <c r="F16">
-        <v>1.028403002961636</v>
+        <v>1.028193294040567</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050289911283119</v>
+        <v>1.050098661895505</v>
       </c>
       <c r="J16">
-        <v>1.019412514584889</v>
+        <v>1.019484633257063</v>
       </c>
       <c r="K16">
-        <v>1.035343310349442</v>
+        <v>1.034974032911322</v>
       </c>
       <c r="L16">
-        <v>1.014184594296053</v>
+        <v>1.014250138795949</v>
       </c>
       <c r="M16">
-        <v>1.04224246511374</v>
+        <v>1.042036268339031</v>
       </c>
       <c r="N16">
-        <v>1.010522248667197</v>
+        <v>1.012664618304433</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04326225549565</v>
+        <v>1.043099273738352</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036138466546551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035893749158309</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021750457732762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9923686742187867</v>
+        <v>0.9923648163101112</v>
       </c>
       <c r="D17">
-        <v>1.02235284449744</v>
+        <v>1.021889924039684</v>
       </c>
       <c r="E17">
-        <v>1.000958579058127</v>
+        <v>1.000957247574841</v>
       </c>
       <c r="F17">
-        <v>1.029271212129423</v>
+        <v>1.028997094108336</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050617588156531</v>
+        <v>1.050381014406818</v>
       </c>
       <c r="J17">
-        <v>1.020123305047794</v>
+        <v>1.020119598638062</v>
       </c>
       <c r="K17">
-        <v>1.035979978874405</v>
+        <v>1.035524729081401</v>
       </c>
       <c r="L17">
-        <v>1.014949821760972</v>
+        <v>1.014948513565565</v>
       </c>
       <c r="M17">
-        <v>1.042784764265655</v>
+        <v>1.042515109240126</v>
       </c>
       <c r="N17">
-        <v>1.010745494790033</v>
+        <v>1.012729360741697</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043562122511898</v>
+        <v>1.043348961008235</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036591200588041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036285943046</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021858225136739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9931294146362374</v>
+        <v>0.9930918769440021</v>
       </c>
       <c r="D18">
-        <v>1.022818652602388</v>
+        <v>1.022315794832301</v>
       </c>
       <c r="E18">
-        <v>1.001524232250414</v>
+        <v>1.001494813339581</v>
       </c>
       <c r="F18">
-        <v>1.029527994475635</v>
+        <v>1.029224145955874</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05074611653246</v>
+        <v>1.050488724314695</v>
       </c>
       <c r="J18">
-        <v>1.020454521019784</v>
+        <v>1.020418429382445</v>
       </c>
       <c r="K18">
-        <v>1.036254797354769</v>
+        <v>1.035760134245022</v>
       </c>
       <c r="L18">
-        <v>1.015316707226818</v>
+        <v>1.015287794147617</v>
       </c>
       <c r="M18">
-        <v>1.042855784801283</v>
+        <v>1.042556804204441</v>
       </c>
       <c r="N18">
-        <v>1.010830992696528</v>
+        <v>1.012750486325944</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043381116382872</v>
+        <v>1.043144724023699</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036773875116701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036439615348323</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021894883551244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9932484781795416</v>
+        <v>0.9932159108103076</v>
       </c>
       <c r="D19">
-        <v>1.022822006176228</v>
+        <v>1.022321856344206</v>
       </c>
       <c r="E19">
-        <v>1.001587807603689</v>
+        <v>1.00156441752596</v>
       </c>
       <c r="F19">
-        <v>1.029216813649576</v>
+        <v>1.028914306907921</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050692009061692</v>
+        <v>1.05043590054494</v>
       </c>
       <c r="J19">
-        <v>1.020432864263931</v>
+        <v>1.020401543697163</v>
       </c>
       <c r="K19">
-        <v>1.036195600649509</v>
+        <v>1.035703557777009</v>
       </c>
       <c r="L19">
-        <v>1.015314792987415</v>
+        <v>1.015291802853801</v>
       </c>
       <c r="M19">
-        <v>1.042487644297014</v>
+        <v>1.042189961910092</v>
       </c>
       <c r="N19">
-        <v>1.010791683244858</v>
+        <v>1.012712675948366</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042765361727438</v>
+        <v>1.042529919256209</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036738412155949</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036406628690117</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.0218649700445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9915645950662029</v>
+        <v>0.9916416756548169</v>
       </c>
       <c r="D20">
-        <v>1.021526682942545</v>
+        <v>1.021144844499873</v>
       </c>
       <c r="E20">
-        <v>1.00024056619938</v>
+        <v>1.000315998376569</v>
       </c>
       <c r="F20">
-        <v>1.027359786857418</v>
+        <v>1.027143002816481</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050130342267575</v>
+        <v>1.049935441859861</v>
       </c>
       <c r="J20">
-        <v>1.019424605268162</v>
+        <v>1.019498642846185</v>
       </c>
       <c r="K20">
-        <v>1.035201285973523</v>
+        <v>1.034825805220604</v>
       </c>
       <c r="L20">
-        <v>1.014279186859188</v>
+        <v>1.014353293608799</v>
       </c>
       <c r="M20">
-        <v>1.040938022969992</v>
+        <v>1.040724795170001</v>
       </c>
       <c r="N20">
-        <v>1.010402224659831</v>
+        <v>1.012499132847726</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041012852050677</v>
+        <v>1.040844104964567</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036039312490482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035790333963854</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021649241519078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9871251136921576</v>
+        <v>0.987498499724733</v>
       </c>
       <c r="D21">
-        <v>1.018504466325587</v>
+        <v>1.018425303982821</v>
       </c>
       <c r="E21">
-        <v>0.9968301363684896</v>
+        <v>0.9971667111094989</v>
       </c>
       <c r="F21">
-        <v>1.024229686886314</v>
+        <v>1.024238598105434</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049033472085566</v>
+        <v>1.048995628238456</v>
       </c>
       <c r="J21">
-        <v>1.017171168531765</v>
+        <v>1.017528364624329</v>
       </c>
       <c r="K21">
-        <v>1.033143546363346</v>
+        <v>1.033065813907911</v>
       </c>
       <c r="L21">
-        <v>1.011871812674928</v>
+        <v>1.012201960567789</v>
       </c>
       <c r="M21">
-        <v>1.038766114522169</v>
+        <v>1.038774867125394</v>
       </c>
       <c r="N21">
-        <v>1.009641123985633</v>
+        <v>1.012389529962414</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03925316869385</v>
+        <v>1.039260095804434</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034587642835064</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034549516016517</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021288398077561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9842919767394563</v>
+        <v>0.984852615218345</v>
       </c>
       <c r="D22">
-        <v>1.016583193305891</v>
+        <v>1.016695328954444</v>
       </c>
       <c r="E22">
-        <v>0.9946631392631763</v>
+        <v>0.995164653256902</v>
       </c>
       <c r="F22">
-        <v>1.022272955300418</v>
+        <v>1.022424653383626</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048326376967781</v>
+        <v>1.048387626658184</v>
       </c>
       <c r="J22">
-        <v>1.015737435195075</v>
+        <v>1.016272345681962</v>
       </c>
       <c r="K22">
-        <v>1.031833139899034</v>
+        <v>1.031943148167049</v>
       </c>
       <c r="L22">
-        <v>1.010341066995643</v>
+        <v>1.010832511770751</v>
       </c>
       <c r="M22">
-        <v>1.03741572736115</v>
+        <v>1.0375645893099</v>
       </c>
       <c r="N22">
-        <v>1.009158143168128</v>
+        <v>1.012312341995516</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038184425146861</v>
+        <v>1.038302239768768</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033647618096224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033740936048099</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021056696138559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9857917525013261</v>
+        <v>0.9862417581588439</v>
       </c>
       <c r="D23">
-        <v>1.017595571061202</v>
+        <v>1.01759851223388</v>
       </c>
       <c r="E23">
-        <v>0.9958083272206106</v>
+        <v>0.9962121959901528</v>
       </c>
       <c r="F23">
-        <v>1.023306772486329</v>
+        <v>1.02337630056685</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04869889797492</v>
+        <v>1.048703563680979</v>
       </c>
       <c r="J23">
-        <v>1.016493202002146</v>
+        <v>1.016923163658516</v>
       </c>
       <c r="K23">
-        <v>1.032521401217785</v>
+        <v>1.032524288013172</v>
       </c>
       <c r="L23">
-        <v>1.01114853313278</v>
+        <v>1.011544504325523</v>
       </c>
       <c r="M23">
-        <v>1.038127778768267</v>
+        <v>1.038196040105557</v>
       </c>
       <c r="N23">
-        <v>1.009411490326207</v>
+        <v>1.012308710360821</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038747967689968</v>
+        <v>1.038801992091342</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034124608544563</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034141243508364</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02117506096594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9915962208284327</v>
+        <v>0.9916736857273151</v>
       </c>
       <c r="D24">
-        <v>1.021528051757225</v>
+        <v>1.021145849660004</v>
       </c>
       <c r="E24">
-        <v>1.000258717535126</v>
+        <v>1.000334793510293</v>
       </c>
       <c r="F24">
-        <v>1.027323950568911</v>
+        <v>1.027106930325325</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050119880321761</v>
+        <v>1.049924777951597</v>
       </c>
       <c r="J24">
-        <v>1.019421649690138</v>
+        <v>1.019496060989204</v>
       </c>
       <c r="K24">
-        <v>1.035187371620836</v>
+        <v>1.034811525094635</v>
       </c>
       <c r="L24">
-        <v>1.014281291326448</v>
+        <v>1.014356032349226</v>
       </c>
       <c r="M24">
-        <v>1.040887636633533</v>
+        <v>1.040674172271474</v>
       </c>
       <c r="N24">
-        <v>1.010395327600256</v>
+        <v>1.012490396926564</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040932212151558</v>
+        <v>1.04076326950281</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036002075438397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035750167342593</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021641478686351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9981136045478141</v>
+        <v>0.9979303774722305</v>
       </c>
       <c r="D25">
-        <v>1.025956277400855</v>
+        <v>1.025246652140176</v>
       </c>
       <c r="E25">
-        <v>1.005287294037018</v>
+        <v>1.005136206334712</v>
       </c>
       <c r="F25">
-        <v>1.031860672115013</v>
+        <v>1.031410015634699</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051661199252026</v>
+        <v>1.051296165780721</v>
       </c>
       <c r="J25">
-        <v>1.022704620625654</v>
+        <v>1.022527593980457</v>
       </c>
       <c r="K25">
-        <v>1.038164588010138</v>
+        <v>1.037465292106375</v>
       </c>
       <c r="L25">
-        <v>1.017804082330303</v>
+        <v>1.017655309143496</v>
       </c>
       <c r="M25">
-        <v>1.043983735451762</v>
+        <v>1.043539541955542</v>
       </c>
       <c r="N25">
-        <v>1.011498340288396</v>
+        <v>1.013251164003049</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04338256116456</v>
+        <v>1.043031013108273</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038104256717978</v>
+        <v>1.037623342742485</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022182277048094</v>
       </c>
     </row>
   </sheetData>
